--- a/BID-Escenario-2.xlsx
+++ b/BID-Escenario-2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -42,18 +42,6 @@
   </si>
   <si>
     <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
   </si>
   <si>
     <t>id1</t>
@@ -1334,45 +1322,29 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="13.65" customHeight="1">
-      <c r="A11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4">
-        <v>40</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="13.65" customHeight="1">
-      <c r="A12" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4">
-        <v>20</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="13.65" customHeight="1">
-      <c r="A13" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4">
-        <v>25</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1400,13 +1372,13 @@
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
